--- a/Stierenkaart/Basislijst stierenoverzicht APR2025(Blad1).xlsx
+++ b/Stierenkaart/Basislijst stierenoverzicht APR2025(Blad1).xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v.vanrooijen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kisamen-my.sharepoint.com/personal/v_vanrooijen_kisamen_com/Documents/Bureaublad/Project Stierenkaart/Stierenkaart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC7A6574-9FA9-4690-9F10-A4E49F6D83F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{AC7A6574-9FA9-4690-9F10-A4E49F6D83F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BDA7F69-D878-461D-8400-0BA86238E996}"/>
   <bookViews>
-    <workbookView xWindow="4008" yWindow="4008" windowWidth="13824" windowHeight="7104" xr2:uid="{DC79A418-CC1E-4E15-AF92-256309112352}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{DC79A418-CC1E-4E15-AF92-256309112352}"/>
   </bookViews>
   <sheets>
     <sheet name="Basislijst stierenoverzicht APR" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -994,13 +1007,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5375CFE6-55B8-42AF-8121-A7A166D0E21D}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1008,7 +1023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>782666</v>
       </c>
@@ -1016,7 +1031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>361096</v>
       </c>
@@ -1024,7 +1039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>361218</v>
       </c>
@@ -1032,7 +1047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>780644</v>
       </c>
@@ -1040,15 +1055,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>780892</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <f>759/7</f>
+        <v>108.42857142857143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>782753</v>
       </c>
@@ -1056,7 +1075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>361189</v>
       </c>
@@ -1064,7 +1083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>361221</v>
       </c>
@@ -1072,7 +1091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>361219</v>
       </c>
@@ -1080,7 +1099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>361197</v>
       </c>
@@ -1088,7 +1107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>361191</v>
       </c>
@@ -1096,7 +1115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>781289</v>
       </c>
@@ -1104,7 +1123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>361170</v>
       </c>
@@ -1112,7 +1131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>361174</v>
       </c>
@@ -1120,7 +1139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>361112</v>
       </c>

--- a/Stierenkaart/Basislijst stierenoverzicht APR2025(Blad1).xlsx
+++ b/Stierenkaart/Basislijst stierenoverzicht APR2025(Blad1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kisamen-my.sharepoint.com/personal/v_vanrooijen_kisamen_com/Documents/Bureaublad/Project Stierenkaart/Stierenkaart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{AC7A6574-9FA9-4690-9F10-A4E49F6D83F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BDA7F69-D878-461D-8400-0BA86238E996}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{AC7A6574-9FA9-4690-9F10-A4E49F6D83F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EF6696B-5C0E-4027-8F2D-9FD1ECA83271}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{DC79A418-CC1E-4E15-AF92-256309112352}"/>
+    <workbookView xWindow="4110" yWindow="4965" windowWidth="28770" windowHeight="13395" xr2:uid="{DC79A418-CC1E-4E15-AF92-256309112352}"/>
   </bookViews>
   <sheets>
     <sheet name="Basislijst stierenoverzicht APR" sheetId="1" r:id="rId1"/>
@@ -688,6 +688,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1007,15 +1011,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5375CFE6-55B8-42AF-8121-A7A166D0E21D}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1023,7 +1027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>782666</v>
       </c>
@@ -1031,7 +1035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>361096</v>
       </c>
@@ -1039,7 +1043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>361218</v>
       </c>
@@ -1047,7 +1051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>780644</v>
       </c>
@@ -1055,19 +1059,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>780892</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="I6">
-        <f>759/7</f>
-        <v>108.42857142857143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>782753</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>361189</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>361221</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>361219</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>361197</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>361191</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>781289</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>361170</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>361174</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>361112</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>361181</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>361184</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>361186</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>781489</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>361190</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>782891</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>783404</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>782492</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>361198</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>361134</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>361052</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>361216</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>361151</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>780396</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>361214</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>361092</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>361171</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>361222</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>361037</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>361145</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36628</v>
       </c>
